--- a/output/1Y_P12_1VAL-D.xlsx
+++ b/output/1Y_P12_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>10.0658</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>993.463</v>
       </c>
-      <c r="G2" s="1">
-        <v>993.463</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.0419</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.0658</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0419</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E3" s="1">
+        <v>993.463</v>
+      </c>
       <c r="F3" s="1">
         <v>886.1477</v>
       </c>
-      <c r="G3" s="1">
-        <v>1879.6108</v>
-      </c>
       <c r="H3" s="1">
-        <v>21101.0742</v>
+        <v>11152.9138</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.6405</v>
+        <v>11152.9138</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>10.0658</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21101.0742</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0578</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E4" s="1">
+        <v>1879.6108</v>
+      </c>
       <c r="F4" s="1">
         <v>898.1417</v>
       </c>
-      <c r="G4" s="1">
-        <v>2777.7525</v>
-      </c>
       <c r="H4" s="1">
-        <v>30767.4978</v>
+        <v>20819.3205</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.8001</v>
+        <v>20819.3205</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.6405</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30767.4978</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0107</v>
+        <v>-0.0158</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E5" s="1">
+        <v>2777.7525</v>
+      </c>
       <c r="F5" s="1">
         <v>916.8928</v>
       </c>
-      <c r="G5" s="1">
-        <v>3694.6453</v>
-      </c>
       <c r="H5" s="1">
-        <v>40086.1629</v>
+        <v>30138.059</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>10.8265</v>
+        <v>30138.059</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.8001</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40086.1629</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0167</v>
+        <v>-0.0221</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E6" s="1">
+        <v>3694.6453</v>
+      </c>
       <c r="F6" s="1">
         <v>860.0893</v>
       </c>
-      <c r="G6" s="1">
-        <v>4554.7346</v>
-      </c>
       <c r="H6" s="1">
-        <v>52681.4269</v>
+        <v>42733.3763</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.9776</v>
+        <v>42733.3763</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.8265</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52681.4269</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0518</v>
+        <v>0.06469999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E7" s="1">
+        <v>4554.7346</v>
+      </c>
       <c r="F7" s="1">
         <v>812.3807</v>
       </c>
-      <c r="G7" s="1">
-        <v>5367.1153</v>
-      </c>
       <c r="H7" s="1">
-        <v>65723.54700000001</v>
+        <v>55775.4581</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>11.1792</v>
+        <v>55775.4581</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.9776</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65723.54700000001</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0485</v>
+        <v>0.0577</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E8" s="1">
+        <v>5367.1153</v>
+      </c>
       <c r="F8" s="1">
         <v>746.9598999999999</v>
       </c>
-      <c r="G8" s="1">
-        <v>6114.0752</v>
-      </c>
       <c r="H8" s="1">
-        <v>81428.4758</v>
+        <v>71480.31479999999</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>11.449</v>
+        <v>71480.31479999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>11.1792</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81428.4758</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.07530000000000001</v>
+        <v>0.0867</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E9" s="1">
+        <v>6114.0752</v>
+      </c>
       <c r="F9" s="1">
         <v>751.0834</v>
       </c>
-      <c r="G9" s="1">
-        <v>6865.1586</v>
-      </c>
       <c r="H9" s="1">
-        <v>90929.0257</v>
+        <v>80980.9255</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>11.653</v>
+        <v>80980.9255</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>11.449</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.6</v>
       </c>
-      <c r="L9" s="1">
-        <v>3301.6006</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-6698.3994</v>
+        <v>2898.2423</v>
       </c>
       <c r="O9" s="1">
-        <v>3301.6006</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>94230.6262</v>
+        <v>-7101.7577</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0306</v>
+        <v>-0.0061</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E10" s="1">
+        <v>6865.1586</v>
+      </c>
       <c r="F10" s="1">
-        <v>788.9773</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7654.1359</v>
+        <v>781.6279</v>
       </c>
       <c r="H10" s="1">
-        <v>104475.8938</v>
+        <v>93706.6688</v>
       </c>
       <c r="I10" s="1">
-        <v>90825.4001</v>
+        <v>2898.2423</v>
       </c>
       <c r="J10" s="1">
-        <v>11.8662</v>
+        <v>96604.9111</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80724.5606</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>11.7586</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10825.4001</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>2476.2004</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>106952.0942</v>
+        <v>-10724.5606</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0261</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E11" s="1">
+        <v>7646.7865</v>
+      </c>
       <c r="F11" s="1">
-        <v>762.2394</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8416.3753</v>
+        <v>755.1391</v>
       </c>
       <c r="H11" s="1">
-        <v>118909.9172</v>
+        <v>108036.8589</v>
       </c>
       <c r="I11" s="1">
-        <v>101650.8003</v>
+        <v>2173.6817</v>
       </c>
       <c r="J11" s="1">
-        <v>12.0777</v>
+        <v>110210.5406</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91449.1211</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>11.9592</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10825.4001</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1650.8003</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>120560.7175</v>
+        <v>-10724.5606</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0309</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E12" s="1">
+        <v>8401.9256</v>
+      </c>
       <c r="F12" s="1">
-        <v>773.9283</v>
-      </c>
-      <c r="G12" s="1">
-        <v>9190.3037</v>
+        <v>766.7191</v>
       </c>
       <c r="H12" s="1">
-        <v>127883.9947</v>
+        <v>116913.635</v>
       </c>
       <c r="I12" s="1">
-        <v>112476.2004</v>
+        <v>1449.1211</v>
       </c>
       <c r="J12" s="1">
-        <v>12.2386</v>
+        <v>118362.7561</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102173.6817</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.1607</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10825.4001</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>825.4001</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>128709.3948</v>
+        <v>-10724.5606</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0142</v>
+        <v>-0.0154</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E13" s="1">
+        <v>9168.644700000001</v>
+      </c>
       <c r="F13" s="1">
-        <v>840.3638999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10030.6676</v>
+        <v>832.5359</v>
       </c>
       <c r="H13" s="1">
-        <v>128543.0054</v>
+        <v>117496.1823</v>
       </c>
       <c r="I13" s="1">
-        <v>123301.6006</v>
+        <v>724.5606</v>
       </c>
       <c r="J13" s="1">
-        <v>12.2925</v>
+        <v>118220.7429</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112898.2423</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>12.3135</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10825.4001</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128543.0054</v>
+        <v>-10724.5606</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0733</v>
+        <v>-0.079</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E14" s="1">
+        <v>10001.1806</v>
+      </c>
       <c r="F14" s="1">
-        <v>-10030.6676</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-9168.644700000001</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127857.0931</v>
       </c>
       <c r="I14" s="1">
-        <v>123301.6006</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>12.2925</v>
+        <v>127857.0931</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112898.2423</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.2885</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>128234.0609</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>128234.0609</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128234.0609</v>
+        <v>117213.7881</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.07439999999999999</v>
+        <v>-0.0028</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>10.0658</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>993.463</v>
       </c>
       <c r="G2" s="1">
-        <v>993.463</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0419</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.0658</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0419</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>11.2848</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>993.463</v>
       </c>
       <c r="F3" s="1">
         <v>788.0679</v>
       </c>
       <c r="G3" s="1">
-        <v>1781.5309</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>11152.9138</v>
       </c>
       <c r="I3" s="1">
-        <v>18893.1881</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.605</v>
+        <v>11152.9138</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>8893.188099999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.951700000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-8893.188099999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>1106.8119</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21106.8119</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0581</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>11.1341</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1781.5309</v>
       </c>
       <c r="F4" s="1">
         <v>926.9304</v>
       </c>
       <c r="G4" s="1">
-        <v>2708.4612</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>19732.9485</v>
       </c>
       <c r="I4" s="1">
-        <v>29213.7235</v>
+        <v>1106.8119</v>
       </c>
       <c r="J4" s="1">
-        <v>10.7861</v>
+        <v>20839.7604</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19213.7235</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.785</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10320.5354</v>
       </c>
-      <c r="O4" s="1">
-        <v>786.2765000000001</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30786.2765</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0103</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>10.9064</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2708.4612</v>
       </c>
       <c r="F5" s="1">
         <v>978.2427</v>
       </c>
       <c r="G5" s="1">
-        <v>3686.7039</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>29386.2627</v>
       </c>
       <c r="I5" s="1">
-        <v>39882.8294</v>
+        <v>786.2765000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>10.818</v>
+        <v>30172.5392</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29882.8294</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>11.0331</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10669.1059</v>
       </c>
-      <c r="O5" s="1">
-        <v>117.1706</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40117.1706</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0164</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>11.6267</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>3686.7039</v>
       </c>
       <c r="F6" s="1">
         <v>636.1997</v>
       </c>
       <c r="G6" s="1">
-        <v>4322.9036</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>42641.5233</v>
       </c>
       <c r="I6" s="1">
-        <v>47279.7325</v>
+        <v>117.1706</v>
       </c>
       <c r="J6" s="1">
-        <v>10.937</v>
+        <v>42758.694</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37279.7325</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.1119</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7396.9031</v>
       </c>
-      <c r="O6" s="1">
-        <v>2720.2675</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52720.2675</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0519</v>
+        <v>0.0644</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>12.3095</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>4322.9036</v>
       </c>
       <c r="F7" s="1">
         <v>576.8155</v>
       </c>
       <c r="G7" s="1">
-        <v>4899.7191</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>52936.5484</v>
       </c>
       <c r="I7" s="1">
-        <v>54380.0426</v>
+        <v>2720.2675</v>
       </c>
       <c r="J7" s="1">
-        <v>11.0986</v>
+        <v>55656.816</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>44380.0426</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.2663</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7100.3101</v>
       </c>
-      <c r="O7" s="1">
-        <v>5619.9574</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65619.9574</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0462</v>
+        <v>0.0549</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>13.3876</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4899.7191</v>
       </c>
       <c r="F8" s="1">
         <v>356.2464</v>
       </c>
       <c r="G8" s="1">
-        <v>5255.9655</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>65255.4387</v>
       </c>
       <c r="I8" s="1">
-        <v>59149.3274</v>
+        <v>5619.9574</v>
       </c>
       <c r="J8" s="1">
-        <v>11.2538</v>
+        <v>70875.3961</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>49149.3274</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.0311</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-4769.2848</v>
       </c>
-      <c r="O8" s="1">
-        <v>10850.6726</v>
-      </c>
-      <c r="P8" s="1">
-        <v>80850.67260000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0692</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>13.3141</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>5255.9655</v>
       </c>
       <c r="F9" s="1">
         <v>784.0496000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>6040.0151</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>69615.26330000001</v>
       </c>
       <c r="I9" s="1">
-        <v>69588.24189999999</v>
+        <v>10850.6726</v>
       </c>
       <c r="J9" s="1">
-        <v>11.5212</v>
+        <v>80465.936</v>
       </c>
       <c r="K9" s="1">
+        <v>59588.2419</v>
+      </c>
+      <c r="L9" s="1">
+        <v>11.3373</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.6</v>
       </c>
-      <c r="L9" s="1">
-        <v>2838.2214</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-7600.6931</v>
+        <v>2645.8483</v>
       </c>
       <c r="O9" s="1">
-        <v>13249.9795</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>93249.9795</v>
+        <v>-7793.0662</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0264</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>13.7208</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>6040.0151</v>
       </c>
       <c r="F10" s="1">
         <v>553.5847</v>
       </c>
       <c r="G10" s="1">
-        <v>6593.5998</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>82443.7901</v>
       </c>
       <c r="I10" s="1">
-        <v>77183.867</v>
+        <v>13057.6064</v>
       </c>
       <c r="J10" s="1">
-        <v>11.7059</v>
+        <v>95501.3965</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>67183.867</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>11.1231</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7595.6251</v>
       </c>
-      <c r="O10" s="1">
-        <v>15654.3544</v>
-      </c>
-      <c r="P10" s="1">
-        <v>105654.3544</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0233</v>
+        <v>0.0557</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>14.2021</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6593.5998</v>
       </c>
       <c r="F11" s="1">
         <v>484.3425</v>
       </c>
       <c r="G11" s="1">
-        <v>7077.9423</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>93157.0156</v>
       </c>
       <c r="I11" s="1">
-        <v>84062.5474</v>
+        <v>15461.9813</v>
       </c>
       <c r="J11" s="1">
-        <v>11.8767</v>
+        <v>108618.9969</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>74062.5474</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>11.2325</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-6878.6805</v>
       </c>
-      <c r="O11" s="1">
-        <v>18775.6739</v>
-      </c>
-      <c r="P11" s="1">
-        <v>118775.6739</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.027</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>13.9876</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7077.9423</v>
       </c>
       <c r="F12" s="1">
         <v>827.1392</v>
       </c>
       <c r="G12" s="1">
-        <v>7905.0815</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>98490.2749</v>
       </c>
       <c r="I12" s="1">
-        <v>95632.2401</v>
+        <v>18583.3009</v>
       </c>
       <c r="J12" s="1">
-        <v>12.0976</v>
+        <v>117073.5758</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>85632.2401</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.0985</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11569.6927</v>
       </c>
-      <c r="O12" s="1">
-        <v>17205.9812</v>
-      </c>
-      <c r="P12" s="1">
-        <v>127205.9812</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0122</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>12.8818</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>7905.0815</v>
       </c>
       <c r="F13" s="1">
         <v>1458.945</v>
       </c>
       <c r="G13" s="1">
-        <v>9364.0265</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>101303.6198</v>
       </c>
       <c r="I13" s="1">
-        <v>114426.0779</v>
+        <v>17013.6082</v>
       </c>
       <c r="J13" s="1">
-        <v>12.2198</v>
+        <v>118317.228</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104426.0779</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.21</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-18793.8377</v>
       </c>
-      <c r="O13" s="1">
-        <v>8412.1435</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128412.1435</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0641</v>
+        <v>-0.0689</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>12.8509</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9364.0265</v>
       </c>
       <c r="F14" s="1">
         <v>-9364.0265</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>119711.588</v>
       </c>
       <c r="I14" s="1">
-        <v>114426.0779</v>
+        <v>8219.770500000001</v>
       </c>
       <c r="J14" s="1">
-        <v>12.2198</v>
+        <v>127931.3584</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104426.0779</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.1518</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>119711.588</v>
       </c>
-      <c r="O14" s="1">
-        <v>128123.7315</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128123.7315</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0743</v>
+        <v>-0.003</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>10.0658</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>993.463</v>
       </c>
       <c r="G2" s="1">
-        <v>993.463</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0419</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.0658</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0419</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>11.2848</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>993.463</v>
       </c>
       <c r="F3" s="1">
         <v>792.5217</v>
       </c>
       <c r="G3" s="1">
-        <v>1785.9847</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>11152.9138</v>
       </c>
       <c r="I3" s="1">
-        <v>18943.4487</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.6067</v>
+        <v>11152.9138</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>8943.448700000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.0023</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-8943.448700000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>1056.5513</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21106.5513</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0581</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>11.1341</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1785.9847</v>
       </c>
       <c r="F4" s="1">
         <v>936.0414</v>
       </c>
       <c r="G4" s="1">
-        <v>2722.0261</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>19782.2809</v>
       </c>
       <c r="I4" s="1">
-        <v>29365.4274</v>
+        <v>1056.5513</v>
       </c>
       <c r="J4" s="1">
-        <v>10.7881</v>
+        <v>20838.8322</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19365.4274</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.843</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10421.9787</v>
       </c>
-      <c r="O4" s="1">
-        <v>634.5726</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30784.8226</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0103</v>
+        <v>-0.0148</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>10.9064</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2722.0261</v>
       </c>
       <c r="F5" s="1">
         <v>975.0762999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>3697.1025</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40112.8222</v>
+        <v>29533.4389</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>634.5726</v>
       </c>
       <c r="J5" s="1">
-        <v>10.8193</v>
+        <v>30168.0115</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>11.0212</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10634.5726</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40112.8222</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0165</v>
+        <v>-0.0218</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>11.6267</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>3697.1025</v>
       </c>
       <c r="F6" s="1">
         <v>669.2469</v>
       </c>
       <c r="G6" s="1">
-        <v>4366.3493</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>42761.7961</v>
       </c>
       <c r="I6" s="1">
-        <v>47781.1327</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.943</v>
+        <v>42761.7961</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37781.1327</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.2191</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-7781.1327</v>
       </c>
-      <c r="O6" s="1">
-        <v>2218.8673</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52721.3736</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0521</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>12.3095</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>4366.3493</v>
       </c>
       <c r="F7" s="1">
         <v>595.0261</v>
       </c>
       <c r="G7" s="1">
-        <v>4961.3754</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>53468.5674</v>
       </c>
       <c r="I7" s="1">
-        <v>55105.6063</v>
+        <v>2218.8673</v>
       </c>
       <c r="J7" s="1">
-        <v>11.1069</v>
+        <v>55687.4347</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45105.6063</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.3303</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7324.4736</v>
       </c>
-      <c r="O7" s="1">
-        <v>4894.3937</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65649.41250000001</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0467</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>13.3876</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4961.3754</v>
       </c>
       <c r="F8" s="1">
         <v>374.0899</v>
       </c>
       <c r="G8" s="1">
-        <v>5335.4653</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>66076.5901</v>
       </c>
       <c r="I8" s="1">
-        <v>60113.7719</v>
+        <v>4894.3937</v>
       </c>
       <c r="J8" s="1">
-        <v>11.2668</v>
+        <v>70970.9838</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>50113.7719</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.1008</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-5008.1657</v>
       </c>
-      <c r="O8" s="1">
-        <v>9886.2281</v>
-      </c>
-      <c r="P8" s="1">
-        <v>80945.02190000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.07000000000000001</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>13.3141</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>5335.4653</v>
       </c>
       <c r="F9" s="1">
         <v>811.3137</v>
       </c>
       <c r="G9" s="1">
-        <v>6146.779</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>70668.2378</v>
       </c>
       <c r="I9" s="1">
-        <v>70915.6838</v>
+        <v>9886.2281</v>
       </c>
       <c r="J9" s="1">
-        <v>11.537</v>
+        <v>80554.4659</v>
       </c>
       <c r="K9" s="1">
+        <v>60915.6838</v>
+      </c>
+      <c r="L9" s="1">
+        <v>11.4171</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.6</v>
       </c>
-      <c r="L9" s="1">
-        <v>2881.1513</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-7920.7605</v>
+        <v>2679.1427</v>
       </c>
       <c r="O9" s="1">
-        <v>11965.4675</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>93379.5554</v>
+        <v>-8122.7691</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0268</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>13.7208</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>6146.779</v>
       </c>
       <c r="F10" s="1">
         <v>580.2429</v>
       </c>
       <c r="G10" s="1">
-        <v>6727.0219</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>83901.07460000001</v>
       </c>
       <c r="I10" s="1">
-        <v>78877.08070000001</v>
+        <v>11763.459</v>
       </c>
       <c r="J10" s="1">
-        <v>11.7254</v>
+        <v>95664.5336</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>68877.08070000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>11.2054</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7961.397</v>
       </c>
-      <c r="O10" s="1">
-        <v>14004.0706</v>
-      </c>
-      <c r="P10" s="1">
-        <v>105825.2288</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0237</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>14.2021</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6727.0219</v>
       </c>
       <c r="F11" s="1">
         <v>512.3162</v>
       </c>
       <c r="G11" s="1">
-        <v>7239.3381</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>95042.0564</v>
       </c>
       <c r="I11" s="1">
-        <v>86153.04610000001</v>
+        <v>13802.062</v>
       </c>
       <c r="J11" s="1">
-        <v>11.9007</v>
+        <v>108844.1184</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>76153.04610000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>11.3205</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7275.9654</v>
       </c>
-      <c r="O11" s="1">
-        <v>16728.1052</v>
-      </c>
-      <c r="P11" s="1">
-        <v>119008.3692</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0275</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>13.9876</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>7239.3381</v>
       </c>
       <c r="F12" s="1">
         <v>866.3647</v>
       </c>
       <c r="G12" s="1">
-        <v>8105.7028</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>100736.1133</v>
       </c>
       <c r="I12" s="1">
-        <v>98271.4097</v>
+        <v>16526.0966</v>
       </c>
       <c r="J12" s="1">
-        <v>12.1237</v>
+        <v>117262.2099</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>88271.4097</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.1933</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-12118.3636</v>
       </c>
-      <c r="O12" s="1">
-        <v>14609.7416</v>
-      </c>
-      <c r="P12" s="1">
-        <v>127401.407</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0125</v>
+        <v>-0.0133</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>12.8818</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>8105.7028</v>
       </c>
       <c r="F13" s="1">
         <v>1520.175</v>
       </c>
       <c r="G13" s="1">
-        <v>9625.8778</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>103874.5817</v>
       </c>
       <c r="I13" s="1">
-        <v>117853.9994</v>
+        <v>14407.733</v>
       </c>
       <c r="J13" s="1">
-        <v>12.2435</v>
+        <v>118282.3148</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>107853.9994</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.3059</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-19582.5897</v>
       </c>
-      <c r="O13" s="1">
-        <v>5027.1519</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128382.7756</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.06560000000000001</v>
+        <v>-0.0706</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>12.8509</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9625.8778</v>
       </c>
       <c r="F14" s="1">
         <v>-9625.8778</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>123059.1467</v>
       </c>
       <c r="I14" s="1">
-        <v>117853.9994</v>
+        <v>4825.1434</v>
       </c>
       <c r="J14" s="1">
-        <v>12.2435</v>
+        <v>127884.29</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>107853.9994</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.2046</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>123059.1467</v>
       </c>
-      <c r="O14" s="1">
-        <v>128086.2986</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128086.2986</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.07439999999999999</v>
+        <v>-0.0031</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>10.0658</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>993.463</v>
       </c>
       <c r="G2" s="1">
-        <v>993.463</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0419</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.0658</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0419</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>11.2848</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>993.463</v>
       </c>
       <c r="F3" s="1">
         <v>796.9755</v>
       </c>
       <c r="G3" s="1">
-        <v>1790.4385</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>11152.9138</v>
       </c>
       <c r="I3" s="1">
-        <v>18993.7092</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.6084</v>
+        <v>11152.9138</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>8993.709199999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.052899999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-8993.709199999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>1006.2908</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21106.2908</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0581</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>11.1341</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1790.4385</v>
       </c>
       <c r="F4" s="1">
         <v>945.1976</v>
       </c>
       <c r="G4" s="1">
-        <v>2735.6361</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>19831.6133</v>
       </c>
       <c r="I4" s="1">
-        <v>29517.6339</v>
+        <v>1006.2908</v>
       </c>
       <c r="J4" s="1">
-        <v>10.79</v>
+        <v>20837.904</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19517.6339</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.901</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10523.9246</v>
       </c>
-      <c r="O4" s="1">
-        <v>482.3661</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30783.3661</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0104</v>
+        <v>-0.0149</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>10.9064</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2735.6361</v>
       </c>
       <c r="F5" s="1">
         <v>961.1206</v>
       </c>
       <c r="G5" s="1">
-        <v>3696.7568</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40109.0715</v>
+        <v>29681.1049</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>482.3661</v>
       </c>
       <c r="J5" s="1">
-        <v>10.8203</v>
+        <v>30163.471</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.9664</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10482.3661</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40109.0715</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0165</v>
+        <v>-0.0219</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>11.6267</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>3696.7568</v>
       </c>
       <c r="F6" s="1">
         <v>713.4738</v>
       </c>
       <c r="G6" s="1">
-        <v>4410.2306</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42757.7978</v>
       </c>
       <c r="I6" s="1">
-        <v>48295.3461</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.9508</v>
+        <v>42757.7978</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38295.3461</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.3592</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8295.346100000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>1704.6539</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52714.704</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.052</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>12.3095</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>4410.2306</v>
       </c>
       <c r="F7" s="1">
         <v>613.627</v>
       </c>
       <c r="G7" s="1">
-        <v>5023.8576</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>54005.9197</v>
       </c>
       <c r="I7" s="1">
-        <v>55848.7878</v>
+        <v>1704.6539</v>
       </c>
       <c r="J7" s="1">
-        <v>11.1167</v>
+        <v>55710.5736</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45848.7878</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.396</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7553.4416</v>
       </c>
-      <c r="O7" s="1">
-        <v>4151.2122</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65671.3628</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0471</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>13.3876</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>5023.8576</v>
       </c>
       <c r="F8" s="1">
         <v>392.4413</v>
       </c>
       <c r="G8" s="1">
-        <v>5416.2989</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>66908.7403</v>
       </c>
       <c r="I8" s="1">
-        <v>61102.635</v>
+        <v>4151.2122</v>
       </c>
       <c r="J8" s="1">
-        <v>11.2813</v>
+        <v>71059.9525</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>51102.635</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.172</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-5253.8473</v>
       </c>
-      <c r="O8" s="1">
-        <v>8897.365</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81032.71709999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0709</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>13.3141</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5416.2989</v>
       </c>
       <c r="F9" s="1">
         <v>839.398</v>
       </c>
       <c r="G9" s="1">
-        <v>6255.6969</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>71738.879</v>
       </c>
       <c r="I9" s="1">
-        <v>72278.4641</v>
+        <v>8897.365</v>
       </c>
       <c r="J9" s="1">
-        <v>11.554</v>
+        <v>80636.24400000001</v>
       </c>
       <c r="K9" s="1">
+        <v>62278.4641</v>
+      </c>
+      <c r="L9" s="1">
+        <v>11.4983</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.6</v>
       </c>
-      <c r="L9" s="1">
-        <v>2924.8014</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-8251.027599999999</v>
+        <v>2712.8831</v>
       </c>
       <c r="O9" s="1">
-        <v>10646.3374</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>93503.04300000001</v>
+        <v>-8462.945900000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0271</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>13.7208</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>6255.6969</v>
       </c>
       <c r="F10" s="1">
         <v>607.8942</v>
       </c>
       <c r="G10" s="1">
-        <v>6863.5911</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>85387.76059999999</v>
       </c>
       <c r="I10" s="1">
-        <v>80619.2582</v>
+        <v>10434.4191</v>
       </c>
       <c r="J10" s="1">
-        <v>11.7459</v>
+        <v>95822.17969999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>70619.2582</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>11.2888</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8340.794099999999</v>
       </c>
-      <c r="O10" s="1">
-        <v>12305.5432</v>
-      </c>
-      <c r="P10" s="1">
-        <v>105990.8159</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.024</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>14.2021</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>6863.5911</v>
       </c>
       <c r="F11" s="1">
         <v>541.5026</v>
       </c>
       <c r="G11" s="1">
-        <v>7405.0937</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>96971.5601</v>
       </c>
       <c r="I11" s="1">
-        <v>88309.7323</v>
+        <v>12093.6249</v>
       </c>
       <c r="J11" s="1">
-        <v>11.9255</v>
+        <v>109065.185</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>78309.7323</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>11.4094</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-7690.4741</v>
       </c>
-      <c r="O11" s="1">
-        <v>14615.0691</v>
-      </c>
-      <c r="P11" s="1">
-        <v>119237.1946</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.028</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>13.9876</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>7405.0937</v>
       </c>
       <c r="F12" s="1">
         <v>907.3401</v>
       </c>
       <c r="G12" s="1">
-        <v>8312.4337</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>103042.6189</v>
       </c>
       <c r="I12" s="1">
-        <v>101001.2422</v>
+        <v>14403.1508</v>
       </c>
       <c r="J12" s="1">
-        <v>12.1506</v>
+        <v>117445.7698</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>91001.24219999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.289</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-12691.5099</v>
       </c>
-      <c r="O12" s="1">
-        <v>11923.5593</v>
-      </c>
-      <c r="P12" s="1">
-        <v>127591.9059</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0127</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>12.8818</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8312.4337</v>
       </c>
       <c r="F13" s="1">
         <v>1584.1742</v>
       </c>
       <c r="G13" s="1">
-        <v>9896.607900000001</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>106523.8383</v>
       </c>
       <c r="I13" s="1">
-        <v>121408.2568</v>
+        <v>11711.641</v>
       </c>
       <c r="J13" s="1">
-        <v>12.2677</v>
+        <v>118235.4793</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111408.2568</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.4026</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-20407.0147</v>
       </c>
-      <c r="O13" s="1">
-        <v>1516.5446</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128341.5747</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0672</v>
+        <v>-0.0723</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>12.8509</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9896.607900000001</v>
       </c>
       <c r="F14" s="1">
         <v>-9896.607900000001</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>126520.2146</v>
       </c>
       <c r="I14" s="1">
-        <v>121408.2568</v>
+        <v>1304.6263</v>
       </c>
       <c r="J14" s="1">
-        <v>12.2677</v>
+        <v>127824.8409</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111408.2568</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.2572</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>126520.2146</v>
       </c>
-      <c r="O14" s="1">
-        <v>128036.7592</v>
-      </c>
-      <c r="P14" s="1">
-        <v>128036.7592</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0745</v>
+        <v>-0.0032</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>10.0658</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>993.463</v>
       </c>
       <c r="G2" s="1">
-        <v>993.463</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.0419</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>10.0658</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.0419</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>11.2848</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>993.463</v>
       </c>
       <c r="F3" s="1">
         <v>801.4293</v>
       </c>
       <c r="G3" s="1">
-        <v>1794.8924</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>11152.9138</v>
       </c>
       <c r="I3" s="1">
-        <v>19043.9698</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.6101</v>
+        <v>11152.9138</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9043.969800000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.1035</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9043.969800000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>956.0302</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21106.0302</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0581</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>11.1341</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1794.8924</v>
       </c>
       <c r="F4" s="1">
         <v>954.3989</v>
       </c>
       <c r="G4" s="1">
-        <v>2749.2913</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>19880.9456</v>
       </c>
       <c r="I4" s="1">
-        <v>29670.343</v>
+        <v>956.0302</v>
       </c>
       <c r="J4" s="1">
-        <v>10.792</v>
+        <v>20836.9758</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19670.343</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.9591</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10626.3732</v>
       </c>
-      <c r="O4" s="1">
-        <v>329.657</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30781.907</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0104</v>
+        <v>-0.0149</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>10.9064</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2749.2913</v>
       </c>
       <c r="F5" s="1">
         <v>947.1189000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>3696.4101</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40105.3107</v>
+        <v>29829.2606</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>329.657</v>
       </c>
       <c r="J5" s="1">
-        <v>10.8213</v>
+        <v>30158.9176</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>10.9119</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10329.657</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40105.3107</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0166</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>11.6267</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>3696.4101</v>
       </c>
       <c r="F6" s="1">
         <v>758.1405</v>
       </c>
       <c r="G6" s="1">
-        <v>4454.5507</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42753.7886</v>
       </c>
       <c r="I6" s="1">
-        <v>48814.6724</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.9584</v>
+        <v>42753.7886</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38814.6724</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.5006</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8814.672399999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>1185.3276</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52707.9969</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0519</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>12.3095</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>4454.5507</v>
       </c>
       <c r="F7" s="1">
         <v>632.6242999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>5087.1749</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>54548.6455</v>
       </c>
       <c r="I7" s="1">
-        <v>56601.9609</v>
+        <v>1185.3276</v>
       </c>
       <c r="J7" s="1">
-        <v>11.1264</v>
+        <v>55733.9731</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46601.9609</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.4617</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7787.2885</v>
       </c>
-      <c r="O7" s="1">
-        <v>3398.0391</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65693.5484</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0476</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>13.3876</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>5087.1749</v>
       </c>
       <c r="F8" s="1">
         <v>411.3115</v>
       </c>
       <c r="G8" s="1">
-        <v>5498.4864</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>67752.0131</v>
       </c>
       <c r="I8" s="1">
-        <v>62108.4347</v>
+        <v>3398.0391</v>
       </c>
       <c r="J8" s="1">
-        <v>11.2956</v>
+        <v>71150.0523</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>52108.4347</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.2431</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-5506.4738</v>
       </c>
-      <c r="O8" s="1">
-        <v>7891.5653</v>
-      </c>
-      <c r="P8" s="1">
-        <v>81121.5073</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0717</v>
+        <v>0.0824</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>13.3141</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5498.4864</v>
       </c>
       <c r="F9" s="1">
         <v>868.323</v>
       </c>
       <c r="G9" s="1">
-        <v>6366.8094</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>72827.45269999999</v>
       </c>
       <c r="I9" s="1">
-        <v>73669.3741</v>
+        <v>7891.5653</v>
       </c>
       <c r="J9" s="1">
-        <v>11.5708</v>
+        <v>80719.018</v>
       </c>
       <c r="K9" s="1">
+        <v>63669.3741</v>
+      </c>
+      <c r="L9" s="1">
+        <v>11.5794</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.6</v>
       </c>
-      <c r="L9" s="1">
-        <v>2969.1827</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-8591.756799999999</v>
+        <v>2747.0745</v>
       </c>
       <c r="O9" s="1">
-        <v>9299.808499999999</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>93628.19960000001</v>
+        <v>-8813.865</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0275</v>
+        <v>-0.0053</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>13.7208</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>6366.8094</v>
       </c>
       <c r="F10" s="1">
         <v>636.5692</v>
       </c>
       <c r="G10" s="1">
-        <v>7003.3786</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>86904.4022</v>
       </c>
       <c r="I10" s="1">
-        <v>82403.61259999999</v>
+        <v>9077.7003</v>
       </c>
       <c r="J10" s="1">
-        <v>11.7663</v>
+        <v>95982.10249999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72403.61259999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>11.372</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-8734.238499999999</v>
       </c>
-      <c r="O10" s="1">
-        <v>10565.57</v>
-      </c>
-      <c r="P10" s="1">
-        <v>106158.887</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0244</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>14.2021</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>7003.3786</v>
       </c>
       <c r="F11" s="1">
         <v>571.946</v>
       </c>
       <c r="G11" s="1">
-        <v>7575.3246</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>98946.5346</v>
       </c>
       <c r="I11" s="1">
-        <v>90526.4471</v>
+        <v>10343.4618</v>
       </c>
       <c r="J11" s="1">
-        <v>11.9502</v>
+        <v>109289.9964</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>80526.4471</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>11.4982</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8122.8345</v>
       </c>
-      <c r="O11" s="1">
-        <v>12442.7356</v>
-      </c>
-      <c r="P11" s="1">
-        <v>119469.9522</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0285</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>13.9876</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>7575.3246</v>
       </c>
       <c r="F12" s="1">
         <v>950.1351</v>
       </c>
       <c r="G12" s="1">
-        <v>8525.459699999999</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>105411.3999</v>
       </c>
       <c r="I12" s="1">
-        <v>103816.5569</v>
+        <v>12220.6273</v>
       </c>
       <c r="J12" s="1">
-        <v>12.1772</v>
+        <v>117632.0273</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93816.5569</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>12.3845</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-13290.1098</v>
       </c>
-      <c r="O12" s="1">
-        <v>9152.6258</v>
-      </c>
-      <c r="P12" s="1">
-        <v>127785.2507</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.013</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>12.8818</v>
       </c>
       <c r="E13" s="1">
+        <v>8525.459699999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1469.5553</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>1486.7973</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10012.2571</v>
-      </c>
       <c r="H13" s="1">
-        <v>128307.0744</v>
+        <v>109253.7667</v>
       </c>
       <c r="I13" s="1">
-        <v>122969.1827</v>
+        <v>8930.517599999999</v>
       </c>
       <c r="J13" s="1">
-        <v>12.2819</v>
+        <v>118184.2842</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112747.0745</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.2248</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-19152.6258</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128307.0744</v>
+        <v>-18930.5176</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0688</v>
+        <v>-0.074</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>12.8509</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9995.015100000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-10012.2571</v>
+        <v>-9995.015100000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127778.2715</v>
       </c>
       <c r="I14" s="1">
-        <v>122969.1827</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>12.2819</v>
+        <v>127778.2715</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112747.0745</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>11.2803</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>127998.6968</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>127998.6968</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127998.6968</v>
+        <v>127778.2715</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0745</v>
+        <v>-0.0032</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>12.8162</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>12.2925</v>
+        <v>11.2885</v>
       </c>
       <c r="D3" s="1">
-        <v>12.2198</v>
+        <v>11.1518</v>
       </c>
       <c r="E3" s="1">
-        <v>12.2435</v>
+        <v>11.2046</v>
       </c>
       <c r="F3" s="1">
-        <v>12.2677</v>
+        <v>11.2572</v>
       </c>
       <c r="G3" s="1">
-        <v>12.2819</v>
+        <v>11.2803</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.2632</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1318</v>
+        <v>0.2788</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1248</v>
+        <v>0.2728</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1254</v>
+        <v>0.2736</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1259</v>
+        <v>0.2741</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1264</v>
+        <v>0.2747</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1834</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1634</v>
+        <v>0.1846</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1543</v>
+        <v>0.1737</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1558</v>
+        <v>0.1753</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1572</v>
+        <v>0.177</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1586</v>
+        <v>0.1787</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.3242</v>
       </c>
       <c r="C6" s="4">
-        <v>0.6823</v>
+        <v>1.4002</v>
       </c>
       <c r="D6" s="4">
-        <v>0.6768999999999999</v>
+        <v>1.4536</v>
       </c>
       <c r="E6" s="4">
-        <v>0.6746</v>
+        <v>1.4442</v>
       </c>
       <c r="F6" s="4">
-        <v>0.6714</v>
+        <v>1.4337</v>
       </c>
       <c r="G6" s="4">
-        <v>0.6689000000000001</v>
+        <v>1.4238</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1305</v>
+        <v>-0.043</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1451</v>
+        <v>0.1414</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1416</v>
+        <v>0.1378</v>
       </c>
       <c r="F7" s="3">
-        <v>0.138</v>
+        <v>0.1341</v>
       </c>
       <c r="G7" s="3">
-        <v>0.135</v>
+        <v>0.1311</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3301.6006</v>
+        <v>2898.2423</v>
       </c>
       <c r="D8" s="1">
-        <v>2838.2214</v>
+        <v>2645.8483</v>
       </c>
       <c r="E8" s="1">
-        <v>2881.1513</v>
+        <v>2679.1427</v>
       </c>
       <c r="F8" s="1">
-        <v>2924.8014</v>
+        <v>2712.8831</v>
       </c>
       <c r="G8" s="1">
-        <v>2969.1827</v>
+        <v>2747.0745</v>
       </c>
     </row>
   </sheetData>
